--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
@@ -2181,12 +2181,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lecture Notes in Electrical Engineering</t>
+          <t>Lecture notes in electrical engineering</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306518347</t>
+          <t>https://openalex.org/S4210179954</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
@@ -1444,7 +1444,7 @@
 "https://openalex.org/A5028070594", "https://openalex.org/A5081481599", "https://openalex.org/A5018664498", "https://openalex.org/A5018850665", "https://openalex.org/A5071634041", "https://openalex.org/A5026998254", "https://openalex.org/A5008180707", "https://openalex.org/A5002955690", "https://openalex.org/A5007220312", "https://openalex.org/A5044630467", "https://openalex.org/A5013121818", "https://openalex.org/A5016754860", "https://openalex.org/A5065468891", "https://openalex.org/A5023190347", 
 "https://openalex.org/A5055873276", "https://openalex.org/A5005433094", "https://openalex.org/A5073859038", "https://openalex.org/A5029349956", "https://openalex.org/A5031865616", "https://openalex.org/A5010336496", "https://openalex.org/A5007448607", "https://openalex.org/A5037718790", "https://openalex.org/A5035209983", "https://openalex.org/A5048642882", "https://openalex.org/A5030796965", "https://openalex.org/A5000402722", "https://openalex.org/A5073991284", "https://openalex.org/A5020399053", 
 "https://openalex.org/A5022772709", "https://openalex.org/A5028790841", "https://openalex.org/A5007984158", "https://openalex.org/A5006573304", "https://openalex.org/A5075624718", "https://openalex.org/A5005469952", "https://openalex.org/A5086262931", "https://openalex.org/A5029903114", "https://openalex.org/A5033161435", "https://openalex.org/A5008061510", "https://openalex.org/A5090058661"), au_display_name = c("Rohana Adnan", "Shaikh Ziauddin Ahammad", "Sheeraz Ahmad Alaie", "Emmellie Laura Albert", 
-"S. Wazed Ali", "María Cristina Área", "Aayushi Arora", "Kushal Arya", "Satyaranjan Bairagi", "Rekha Bhar", "Harish Chandra", "Che Azurahanim Che Abdullah", "Anupam Chowdhury", "Nicolás Martín Clauser", "Shikha Dubey", "Lau Gee Een", "Fernando Esteban Felissia", "Yogendra K. Gautam", "Pradeep Goyal", "Liberato Haule", "Yang Hong", "Ghasan Fahim Huseien", "Rahul Kandpal", "Ramesh Kataria", "Perminder Jit Kaur", "Geetanjali Kaushik", "Samreen Heena Khan", "Hyunook Kim", "Min‐Soo Kim", "Arun Kumar", 
+"S. Wazed Ali", "María Cristina Área", "Aayushi Arora", "Kushal Arya", "Satyaranjan Bairagi", "Rekha Bhar", "Harish Chandra", "Che Azurahanim Che Abdullah", "Anupam Chowdhury", "Nicolás Martín Clauser", "Shikha Dubey", "Lau Gee Een", "Fernando Esteban Felissia", "Yogendra K. Gautam", "Pradeep Goyal", "Liberato Haule", "Yang Hong", "Ghasan Fahim Huseien", "Rahul Kandpal", "Ramesh Kataria", "Perminder Jit Kaur", "Geetanjali Kaushik", "Samreen Heena Khan", "Hyunook Kim", "Min–Soo Kim", "Arun Kumar", 
 "Ashwani Kumar", "Vijay Kumar", "Vijay Kumar", "Pragati Kumari", "Ingyu Lee", "Divya Manocha", ". Meenu", "Surinder Kumar Mehta", "Muhammad Azri Muhamad Yusop", "Lutamyo Nambela", "Ashreen Norman", "Dharshini Perumal", "Manviri Rani", "Gyandshwar Kumar Rao", "Varun Rawat", "Richa Richa", ". Roohi", "Kwok Wei Shah", "Mohammad Shahadat", "Uma Shanker", "Anuja Sharma", "Kavita Sharma", "Saurabh Sharma", "Hardeep Singh Sheoran", "R.A. Siddiqui", "Beer Singh", "Vikash Kumar Singh", "Chitra Srivastava", 
 "Vimal Chandra Srivastava", "Shrestha Tyagi", "María Evangelina Vallejos", "Monu Verma", "Archana Yadav", "Jyoti Yadav", "Saurabh Yadav", "Yasmin Yasmin", "Siti Nadiah Zulkifli"), au_orcid = c(NA, "https://orcid.org/0000-0002-4459-0239", NA, NA, "https://orcid.org/0000-0001-8253-5022", "https://orcid.org/0000-0002-2227-5131", "https://orcid.org/0000-0001-6024-5382", NA, NA, NA, "https://orcid.org/0000-0002-0448-0174", "https://orcid.org/0000-0003-1023-3978", "https://orcid.org/0000-0001-6742-1027", 
 NA, NA, NA, NA, "https://orcid.org/0000-0003-4662-4583", "https://orcid.org/0000-0002-0156-3943", "https://orcid.org/0000-0001-7137-3267", "https://orcid.org/0000-0003-1480-1012", NA, "https://orcid.org/0000-0002-0142-5663", "https://orcid.org/0000-0002-4279-4801", "https://orcid.org/0000-0002-1480-2798", "https://orcid.org/0000-0002-7411-1497", "https://orcid.org/0000-0002-8903-6653", NA, "https://orcid.org/0000-0002-2435-874X", "https://orcid.org/0000-0002-5180-6595", "https://orcid.org/0000-0002-8806-111X", 
@@ -2354,12 +2354,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Algorithms for intelligent systems</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210217390</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2524-7565</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sorabh Sharma_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Medical Sciences University of Victoria Victoria BC Canada; Department of Psychiatry, University of British Columbia, Vancouver, BC, Canada; Division of Medical Sciences, University of Victoria, Victoria, BC, Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3175085359</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Microvascular basis of cognitive impairment in type 1 diabetes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Pharmacology &amp; Therapeutics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pharmthera.2021.107929</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34171341</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.pharmthera.2021.107929</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283776472</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Thiazoles: A Retrospective Study on Synthesis, Structure-activity Relationship and Therapeutic Significance</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Indian Journal of Pharmaceutical Education and Research</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Association of Pharmaceutical Teachers of India</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.5530/ijper.56.3.113</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.5530/ijper.56.3.113</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Maharishi Markandeshwar Institute of Physiotherapy and Rehabilitation (Deemed to be University), Mullana, Ambala, Haryana 133207, India; Maharishi Markandeshwar Institute of Physiotherapy and Rehabilitation (Deemed to be University), Mullana, Ambala, Haryana 133207, India; Maharishi Markandeshwar Institute of Physiotherapy and Rehabilitation (Deemed to be University), Mullana, Ambala, Haryana 133207, India; Chitkara School of Health Sciences, Chitkara University, Punjab, India; KYNA Physiotherapy, Patiala, Punjab, India; Department of Rehabilitation Sciences, College of Applied Medical Sciences, King Saud University, Riyadh 11433, Saudi Arabia; Department of Rehabilitation Sciences, College of Applied Medical Sciences, King Saud University, Riyadh 11433, Saudi Arabia; Department of Physical Therapy and Health Rehabilitation, College of Applied Medical Sciences, Majmaah University, Majmaah, 11952, Saudi Arabia; Department of Physical Therapy, College of Applied Medical Science, Jazan University, Jazan, 45142, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281255987</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Effectiveness of High Power Laser Therapy on Pain and Isokinetic Peak Torque in Athletes with Proximal Hamstring Tendinopathy: A Randomized Trial</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>BioMed Research International</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Hindawi Publishing Corporation</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1155/2022/4133883</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35647184</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1155/2022/4133883</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Prince Sattam Bin Abdulaziz University; Department of Pharmacy, School of Chemical Sciences and Pharmacy, Central University of Rajasthan, Ajmer, India; Department of Pharmacy, Birla Institute of Technology and Science-Pilani (BITS), Pilani, India; Terasaki Institute for Biomedical Innovation, Los Angeles, USA; Department of Pharmacy, School of Chemical Sciences and Pharmacy, Central University of Rajasthan, Ajmer, India; Department of Pharmacy, School of Chemical Sciences and Pharmacy, Central University of Rajasthan, Ajmer, India; Delhi Pharmaceutical Sciences and Research University, New Delhi, India; Department of Pharmacy, Birla Institute of Technology and Science-Pilani (BITS), Pilani, India; Department of Pharmacy, School of Chemical Sciences and Pharmacy, Central University of Rajasthan, Ajmer, India</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291008977</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Influence of Nanocarrier Type on the Drug Delivery Aspects of Docetaxel: Empirical Evidences</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Pharmaceutical Innovation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12247-022-09677-3</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12247-022-09677-3</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285087311</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Unusual Presentation of Hydatid Cyst</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Euroasian Journal of Hepato-Gastroenterology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.5005/jp-journals-10018-1369</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35990869</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.5005/jp-journals-10018-1369</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">School of Chemical Sciences, Universiti Sains Malaysia, Pulau Pinang, Malaysia; Department of Biochemical Engineering and Biotechnology, Indian Institute of Technology, Delhi, New Delhi, India; School of Interdisciplinary Research (SIRe); Centre for Policy Research, Punjab University, Chandigarh, India; Department of Physics, Faculty of Science; Material Synthesis and Characterization Laboratory, Institute of Advanced Technology, Universiti Putra Malaysia, Serdang, Selangor, Malaysia; Department of Textile and Fibre Engineering, Indian Institute of Technology, Delhi, New Delhi, India; School of Interdisciplinary Research (SIRe); IMAM, UNaM, CONICET, FCEQYN, Programa de Celulosa y Papel (PROCYP), Posadas, Argentina; Department of Chemistry, School of Physical Sciences, Doon University Dehradun, Dehradun, Uttarakhand, India; Department of Chemistry and Centre of Advances Studies in Chemistry, Panjab University, Chandigarh, India; Department of Textile and Fibre Engineering, Indian Institute of Technology Delhi, New Delhi, India; Department of Chemistry and Centre of Advances Studies in Chemistry, Panjab University, Chandigarh, India; Department of Botany and Microbiology, Gurukula Kangri (Deemed to be University), Haridwar, Uttarakhand, India; Department of Physics, Faculty of Science; Material Synthesis and Characterization Laboratory, Institute of Advanced Technology; UPM-MAKNA Cancer Research Laboratory, Institute of Bioscience, Universiti Putra Malaysia, Serdang, Selangor, Malaysia; Department of Textile and Fibre Engineering, Indian Institute of Technology Delhi, New Delhi, India; IMAM, UNaM, CONICET, FCEQYN, Programa de Celulosa y Papel (PROCYP), Posadas, Argentina; Department of Genetics and Plant Breeding, University of Agricultural Sciences, Dharwad, Karnataka, India; Department of Physics, Faculty of Science; Material Synthesis and Characterization Laboratory, Institute of Advanced Technology, Universiti Putra Malaysia, Serdang, Selangor, Malaysia; IMAM, UNaM, CONICET, FCEQYN, Programa de Celulosa y Papel (PROCYP), Posadas, Argentina; Department of Physics, Chaudhary Charan Singh University, Meerut, India; Department of Civil Engineering, Delhi Technological University, Delhi, India; University of Dar es Salaam, College of Engineering and Technology, Department of Mechanical and Industrial Engineering, Dar es Salaam, Tanzania; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; University of Dar es Salaam, College of Engineering and Technology, Department of Mechanical and Industrial Engineering, Dar es Salaam, Tanzania; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206158552</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Contributors</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-12-823296-5.09993-7</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-12-823296-5.09993-7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214668038</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Nanotechnology to Address Micronutrient and Macronutrient Deficiency</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-02-25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CRC Press eBooks</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1201/9781003220350-3</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1201/9781003220350-3</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Physiotherapy, Punjabi university, Patiala, Punjabi, India; Department of Physiotherapy, Punjabi university, Patiala, Punjabi, India; Department of Physiotherapy, Punjabi university, Patiala, Punjabi, India; Department of Physiotherapy, Punjabi university, Patiala, Punjabi, India</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280608746</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Electromyography Based Analysis of the Impact of Ageing on Muscle Activation Pattern during Static and Dynamic Balance Control Tasks: A Systematic Review</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Asian Pacific journal of health sciences</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.21276/apjhs.2022.9.3.15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.21276/apjhs.2022.9.3.15</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Pharmaceutics, University Institute of Pharmaceutical Sciences, Panjab University, Chandigarh, 160014, India.; Department of Pharmaceutics, University Institute of Pharmaceutical Sciences, Panjab University, Chandigarh, 160014, India.; Department of Pharmaceutics, University Institute of Pharmaceutical Sciences, Panjab University, Chandigarh, 160014, India.; Department of Pharmacy, Birla Institute of Technology &amp; Science, Pilani, Vidya Vihar, 333031, Rajasthan, India.; Department of Pharmacy, Birla Institute of Technology &amp; Science, Pilani, Vidya Vihar, 333031, Rajasthan, India.; Department of Pharmaceutics, University Institute of Pharmaceutical Sciences, Panjab University, Chandigarh, 160014, India. Electronic address: vanditakakkar@yahoo.co.in.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283645543</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Preclinical safety of tetrahydrocurcumin loaded lipidic nanoparticles incorporated into tacrolimus ointment: In vitro and in vivo evaluation</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Food and Chemical Toxicology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.fct.2022.113260</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35777714</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.fct.2022.113260</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, School of Biological Engineering and Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Meerut, India; Department of Electronics and Communication Engineering, Manipal University Jaipur, Jaipur, India; Department of Biomedical Engineering, School of Biological Engineering and Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Meerut, India; Department of Biomedical Engineering, School of Biological Engineering and Sciences, Shobhit Institute of Engineering and Technology (Deemed to be University), Meerut, India</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285268437</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Correlative Study of Compositional and Bioelectric Parameters Using Multi-Frequency Bioelectrical Impedance Analysis (MFBIA)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Lecture notes in electrical engineering</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-981-19-0252-9_51</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-19-0252-9_51</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Amity University, Gwalior, India; Amity University, Gwalior, India</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285279652</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>An Efficient Hybrid Recommendation Model with Deep Neural Networks</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Algorithms for intelligent systems</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-981-16-9650-3_36</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-16-9650-3_36</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4288786850</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Contributors</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-90280-9.00022-5</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-90280-9.00022-5</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>4 year, Narayan Nursing College, Gopal Narayan Singh University, Rohtas, Bihar.; 4 year, Narayan Nursing College, Gopal Narayan Singh University, Rohtas, Bihar.; 4 year, Narayan Nursing College, Gopal Narayan Singh University, Rohtas, Bihar.; Professor cum HOD Dept. of MSN, Narayan Nursing College, Gopal Narayan Singh University, Rohtas, Bihar.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289780569</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>“ASSESS THE KNOWLEDGE AND PRACTICE REGARDING BIOMEDICAL WASTE MANAGEMENT AMONG HEALTH CARE WORKERS”</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>INTERNATIONAL JOURNAL OF SCIENTIFIC RESEARCH</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.36106/ijsr/1606766</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.36106/ijsr/1606766</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Central Council for Research in Unani Medicine (CCRUM), Ministry of AYUSH, Govt of India, New Delhi, India; Llyod Institute of Management and Technology, Greater Noida, India; Shriram Murti College of Engineering &amp; Technology (Pharmacy), Bareilly, India; Llyod Institute of Management and Technology, Greater Noida, India; Department of Pharmacology, Gurugram University, Gurugram, India; Department of Pharmacology, All India Institute of Medical Sciences, New Delhi, India; Central Council for Research in Unani Medicine (CCRUM), Ministry of AYUSH, Govt of India, New Delhi, India; Tumor Biology, ICMR-National Institute of Pathology, New Delhi, India</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307718111</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Applications of Nature-Inspired Computing and Artificial Intelligence Algorithms in Solving Personalized Therapy Complications</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Studies in computational intelligence</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-981-19-6379-7_11</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-19-6379-7_11</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388570550</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Comparative evaluation of the antimicrobial efficacy of herbal mouthwash versus chlorhexidine mouthwash</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>NAIR HOSPITAL DENTAL COLLEGE JOURNAL OF CONTEMPORARY DENTISTRY</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>https://doi.org/10.56136/nhdcjcd/2022_00020</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.56136/nhdcjcd/2022_00020</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
